--- a/Gyomu/Format/税込出荷伝票.xlsx
+++ b/Gyomu/Format/税込出荷伝票.xlsx
@@ -61,22 +61,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>出　荷　伝　票</t>
-    <rPh sb="0" eb="1">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ニ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>デン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>〒150-0022 東京都渋谷区恵比寿南1-1-10</t>
     <rPh sb="10" eb="13">
       <t>トウキョウト</t>
@@ -127,7 +111,23 @@
     <rPh sb="9" eb="11">
       <t>タカフミ</t>
     </rPh>
-    <phoneticPr fontId="12"/>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>　出　荷　伝　票</t>
+    <rPh sb="1" eb="2">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>デン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -201,14 +201,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color indexed="8"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="16"/>
       <color indexed="8"/>
@@ -239,6 +231,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -416,11 +416,11 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -462,7 +462,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -490,6 +490,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -502,9 +505,6 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,7 +514,7 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -825,7 +825,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -836,7 +836,7 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -864,17 +864,17 @@
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="47" t="s">
-        <v>7</v>
-      </c>
+      <c r="A2" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="47"/>
       <c r="E2" s="47"/>
       <c r="F2" s="47"/>
       <c r="G2" s="47"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="2"/>
@@ -919,7 +919,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1">
@@ -932,7 +932,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1">
@@ -945,13 +945,13 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -960,7 +960,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
@@ -973,17 +973,17 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="42" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="44" t="s">
         <v>1</v>
       </c>
@@ -993,25 +993,25 @@
       <c r="H11" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="40" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="43"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="45"/>
       <c r="G12" s="46"/>
       <c r="H12" s="46"/>
-      <c r="I12" s="39"/>
+      <c r="I12" s="40"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
-      <c r="A13" s="43">
+      <c r="A13" s="39">
         <v>1</v>
       </c>
       <c r="B13" s="20"/>
@@ -1020,13 +1020,13 @@
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
       <c r="G13" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="25"/>
       <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1">
-      <c r="A14" s="43"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="16"/>
       <c r="C14" s="12"/>
       <c r="D14" s="17"/>
@@ -1037,7 +1037,7 @@
       <c r="I14" s="32"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1">
-      <c r="A15" s="43">
+      <c r="A15" s="39">
         <v>2</v>
       </c>
       <c r="B15" s="20"/>
@@ -1046,13 +1046,13 @@
       <c r="E15" s="1"/>
       <c r="F15" s="2"/>
       <c r="G15" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1">
-      <c r="A16" s="43"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="16"/>
       <c r="C16" s="3"/>
       <c r="D16" s="8"/>
@@ -1063,7 +1063,7 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1">
-      <c r="A17" s="43">
+      <c r="A17" s="39">
         <v>3</v>
       </c>
       <c r="B17" s="20"/>
@@ -1072,13 +1072,13 @@
       <c r="E17" s="13"/>
       <c r="F17" s="26"/>
       <c r="G17" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="35"/>
       <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1">
-      <c r="A18" s="43"/>
+      <c r="A18" s="39"/>
       <c r="B18" s="16"/>
       <c r="C18" s="12"/>
       <c r="D18" s="17"/>
@@ -1089,7 +1089,7 @@
       <c r="I18" s="32"/>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1">
-      <c r="A19" s="43">
+      <c r="A19" s="39">
         <v>4</v>
       </c>
       <c r="B19" s="20"/>
@@ -1102,7 +1102,7 @@
       <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1">
-      <c r="A20" s="43"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="16"/>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
@@ -1113,7 +1113,7 @@
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
-      <c r="A21" s="43">
+      <c r="A21" s="39">
         <v>5</v>
       </c>
       <c r="B21" s="20"/>
@@ -1122,13 +1122,13 @@
       <c r="E21" s="13"/>
       <c r="F21" s="26"/>
       <c r="G21" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="35"/>
       <c r="I21" s="36"/>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1">
-      <c r="A22" s="43"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="16"/>
       <c r="C22" s="12"/>
       <c r="D22" s="17"/>
@@ -1139,7 +1139,7 @@
       <c r="I22" s="32"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1">
-      <c r="A23" s="43">
+      <c r="A23" s="39">
         <v>6</v>
       </c>
       <c r="B23" s="20"/>
@@ -1148,13 +1148,13 @@
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
       <c r="G23" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="30"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1">
-      <c r="A24" s="43"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="16"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
@@ -1165,7 +1165,7 @@
       <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1">
-      <c r="A25" s="43">
+      <c r="A25" s="39">
         <v>7</v>
       </c>
       <c r="B25" s="20"/>
@@ -1178,7 +1178,7 @@
       <c r="I25" s="36"/>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1">
-      <c r="A26" s="43"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="16"/>
       <c r="C26" s="12"/>
       <c r="D26" s="17"/>
@@ -1189,7 +1189,7 @@
       <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1">
-      <c r="A27" s="43">
+      <c r="A27" s="39">
         <v>8</v>
       </c>
       <c r="B27" s="20"/>
@@ -1202,7 +1202,7 @@
       <c r="I27" s="30"/>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1">
-      <c r="A28" s="43"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="16"/>
       <c r="C28" s="1"/>
       <c r="D28" s="17"/>
@@ -1213,7 +1213,7 @@
       <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
-      <c r="A29" s="43">
+      <c r="A29" s="39">
         <v>9</v>
       </c>
       <c r="B29" s="20"/>
@@ -1226,7 +1226,7 @@
       <c r="I29" s="36"/>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1">
-      <c r="A30" s="43"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="16"/>
       <c r="C30" s="12"/>
       <c r="D30" s="17"/>
@@ -1237,7 +1237,7 @@
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1">
-      <c r="A31" s="43">
+      <c r="A31" s="39">
         <v>10</v>
       </c>
       <c r="B31" s="20"/>
@@ -1250,7 +1250,7 @@
       <c r="I31" s="30"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1">
-      <c r="A32" s="43"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="16"/>
       <c r="C32" s="1"/>
       <c r="D32" s="17"/>
@@ -1261,7 +1261,7 @@
       <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1">
-      <c r="A33" s="43">
+      <c r="A33" s="39">
         <v>11</v>
       </c>
       <c r="B33" s="20"/>
@@ -1274,7 +1274,7 @@
       <c r="I33" s="38"/>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1">
-      <c r="A34" s="43"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="16"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -1285,7 +1285,7 @@
       <c r="I34" s="32"/>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1">
-      <c r="A35" s="43">
+      <c r="A35" s="39">
         <v>12</v>
       </c>
       <c r="B35" s="20"/>
@@ -1298,7 +1298,7 @@
       <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1">
-      <c r="A36" s="43"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="16"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1309,7 +1309,7 @@
       <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1">
-      <c r="A37" s="43">
+      <c r="A37" s="39">
         <v>13</v>
       </c>
       <c r="B37" s="20"/>
@@ -1322,7 +1322,7 @@
       <c r="I37" s="38"/>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1">
-      <c r="A38" s="43"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="16"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -1333,7 +1333,7 @@
       <c r="I38" s="32"/>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1">
-      <c r="A39" s="43">
+      <c r="A39" s="39">
         <v>14</v>
       </c>
       <c r="B39" s="20"/>
@@ -1346,7 +1346,7 @@
       <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1">
-      <c r="A40" s="43"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="16"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1357,7 +1357,7 @@
       <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1">
-      <c r="A41" s="43">
+      <c r="A41" s="39">
         <v>15</v>
       </c>
       <c r="B41" s="20"/>
@@ -1370,7 +1370,7 @@
       <c r="I41" s="38"/>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1">
-      <c r="A42" s="43"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="16"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -1381,7 +1381,7 @@
       <c r="I42" s="32"/>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1">
-      <c r="A43" s="43">
+      <c r="A43" s="39">
         <v>16</v>
       </c>
       <c r="B43" s="20"/>
@@ -1394,7 +1394,7 @@
       <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1">
-      <c r="A44" s="43"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="16"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1405,7 +1405,7 @@
       <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1">
-      <c r="A45" s="43">
+      <c r="A45" s="39">
         <v>17</v>
       </c>
       <c r="B45" s="20"/>
@@ -1418,7 +1418,7 @@
       <c r="I45" s="38"/>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1">
-      <c r="A46" s="43"/>
+      <c r="A46" s="39"/>
       <c r="B46" s="16"/>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -1429,7 +1429,7 @@
       <c r="I46" s="32"/>
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1">
-      <c r="A47" s="43">
+      <c r="A47" s="39">
         <v>18</v>
       </c>
       <c r="B47" s="20"/>
@@ -1442,7 +1442,7 @@
       <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1">
-      <c r="A48" s="43"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="16"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1453,7 +1453,7 @@
       <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1">
-      <c r="A49" s="43">
+      <c r="A49" s="39">
         <v>19</v>
       </c>
       <c r="B49" s="20"/>
@@ -1466,7 +1466,7 @@
       <c r="I49" s="38"/>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1">
-      <c r="A50" s="43"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="16"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -1477,7 +1477,7 @@
       <c r="I50" s="32"/>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1">
-      <c r="A51" s="43">
+      <c r="A51" s="39">
         <v>20</v>
       </c>
       <c r="B51" s="20"/>
@@ -1490,7 +1490,7 @@
       <c r="I51" s="38"/>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1">
-      <c r="A52" s="43"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="16"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -1526,18 +1526,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
     <mergeCell ref="I11:I12"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B11:E11"/>
@@ -1554,10 +1542,22 @@
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
-  <phoneticPr fontId="12"/>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <phoneticPr fontId="11"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.78740157480314965" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>